--- a/write.xlsx
+++ b/write.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>cn</t>
+    <t>FAN</t>
   </si>
   <si>
     <t>key0</t>
@@ -260,78 +260,6 @@
   </si>
   <si>
     <t>邮编</t>
-  </si>
-  <si>
-    <t>key40</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>key41</t>
-  </si>
-  <si>
-    <t>军人证</t>
-  </si>
-  <si>
-    <t>key42</t>
-  </si>
-  <si>
-    <t>护照</t>
-  </si>
-  <si>
-    <t>key43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国 </t>
-  </si>
-  <si>
-    <t>key44</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>key45</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>key46</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>key47</t>
-  </si>
-  <si>
-    <t>父母</t>
-  </si>
-  <si>
-    <t>key48</t>
-  </si>
-  <si>
-    <t>兄妹</t>
-  </si>
-  <si>
-    <t>key49</t>
-  </si>
-  <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>key50</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>key51</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
 </sst>
 </file>
@@ -708,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,102 +967,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
